--- a/classfiers/bottleneck/multinomialNB/smote/bottleneck-multinomialNB-smote-results.xlsx
+++ b/classfiers/bottleneck/multinomialNB/smote/bottleneck-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5406091370558376</v>
+        <v>0.5501355013550135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5724516409476201</v>
+        <v>0.5886820245339515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4822838150632085</v>
+        <v>0.5078027126646536</v>
       </c>
       <c r="E2" t="n">
-        <v>0.57245164094762</v>
+        <v>0.5886820245339515</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7224199288256228</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7929037165833515</v>
+        <v>0.7572684246112238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7875114784205693</v>
+        <v>0.7459345620550719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7929037165833515</v>
+        <v>0.757268424611224</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6677740863787376</v>
+        <v>0.751131221719457</v>
       </c>
       <c r="C4" t="n">
-        <v>0.735981308411215</v>
+        <v>0.7733990147783252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7246021125758051</v>
+        <v>0.7729527329313364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.735981308411215</v>
+        <v>0.7733990147783252</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7046979865771812</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7850467289719626</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7764353197674417</v>
+        <v>0.7655874272734771</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7850467289719625</v>
+        <v>0.7758620689655172</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6172106824925816</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6845794392523364</v>
+        <v>0.7266009852216748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6561839873850823</v>
+        <v>0.7070040504255222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6845794392523364</v>
+        <v>0.7266009852216748</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6505423642659921</v>
+        <v>0.665123474485024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7141925668332971</v>
+        <v>0.7243625036221385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6854033426424214</v>
+        <v>0.6998562970700123</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7141925668332971</v>
+        <v>0.7243625036221386</v>
       </c>
     </row>
   </sheetData>
